--- a/Risultati/Pipeline3 TripleR/Test_usando_il_modello_11.xlsx
+++ b/Risultati/Pipeline3 TripleR/Test_usando_il_modello_11.xlsx
@@ -440,427 +440,427 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>27.71608757200849</v>
+        <v>28.30556419040565</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>4.89698772939704</v>
+        <v>7.676473805426895</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>6.945358450978063</v>
+        <v>7.944418227584919</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2.362526031730113</v>
+        <v>3.415618938336195</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1.674443648215316</v>
+        <v>3.116020622501082</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1.759023373078037</v>
+        <v>2.994456602645386</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>5.880337135160346</v>
+        <v>5.88973572244214</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2.34159088462215</v>
+        <v>1.534354667387845</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>9.311736762375972</v>
+        <v>10.12321440681649</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1.863889166814999</v>
+        <v>0.5900651275773328</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>2.930870604987859</v>
+        <v>6.028896973072136</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>6.37096722879653</v>
+        <v>3.609487352116929</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>6.696538781490261</v>
+        <v>4.609890264698635</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>1.42282086580218</v>
+        <v>0.8522022127903881</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>4.005136595863576</v>
+        <v>1.987579744537641</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>3.487014889910796</v>
+        <v>1.257736972979956</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.9978495983616256</v>
+        <v>5.216982649957799</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>5.405144005242249</v>
+        <v>3.788602647592455</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>3.159312119757033</v>
+        <v>0.6387614721413115</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>6.526497493546117</v>
+        <v>3.414959208046184</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>5.016933443343845</v>
+        <v>2.038917012410053</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>1.304266488601598</v>
+        <v>0.4854494366466895</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>3.437499142968761</v>
+        <v>2.808907884265096</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>4.005934074560997</v>
+        <v>1.293759942376454</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>7.600472845503106</v>
+        <v>5.710266940505818</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>7.49107704227913</v>
+        <v>5.322634715292821</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>2.578884075749272</v>
+        <v>1.271915641835164</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>6.453363226344095</v>
+        <v>4.956427830928106</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>5.283872846451743</v>
+        <v>3.458700048572354</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>7.792061282026737</v>
+        <v>6.300969794730321</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>5.613139940861743</v>
+        <v>3.947004899624091</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>6.520240295632362</v>
+        <v>4.448180521353947</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>4.85096231521635</v>
+        <v>3.040576669824759</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>3.516053082766575</v>
+        <v>1.1691830588328</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>7.026461167114917</v>
+        <v>4.192214256073981</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>5.529526929155168</v>
+        <v>3.828851996518921</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>8.138425449242447</v>
+        <v>6.237926996838752</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>7.069539437124121</v>
+        <v>5.348889142888623</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>8.046032366774824</v>
+        <v>6.490047176699989</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>8.425885609275298</v>
+        <v>6.966328863329551</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>11.02501005784927</v>
+        <v>8.692575250883891</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>4.219408330933931</v>
+        <v>1.65804762674108</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>6.511655474230338</v>
+        <v>4.869295015244063</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>2.55306887935248</v>
+        <v>0.1385215065000978</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>0.9460950108678503</v>
+        <v>2.560196570020395</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>6.765274511295246</v>
+        <v>3.960542001562146</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>4.072750506171928</v>
+        <v>1.587850634691875</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>6.014111769396266</v>
+        <v>4.497191368304243</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>4.397292201571275</v>
+        <v>2.687779156573725</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>5.02735535341165</v>
+        <v>3.35918414536161</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>4.430220507215267</v>
+        <v>2.227878816095682</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>2.311419289134506</v>
+        <v>0.1157204711687996</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>4.551071041881869</v>
+        <v>2.86152046210637</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>5.009692131134045</v>
+        <v>2.700725619718668</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>5.560425866015208</v>
+        <v>3.261091502558912</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>2.701528562047258</v>
+        <v>0.04716473961630641</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>4.740837305998213</v>
+        <v>2.259787257745074</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>3.541707609965272</v>
+        <v>1.051048077765387</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>2.212333870172472</v>
+        <v>0.04896573817785566</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>3.508385954021037</v>
+        <v>1.246089703777358</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>6.127343071476957</v>
+        <v>3.732817596500496</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>10.04210138967076</v>
+        <v>7.065275994188823</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>9.07003804518817</v>
+        <v>6.788761644023396</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>3.871908344380415</v>
+        <v>0.9023699298346912</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>9.775899612006214</v>
+        <v>7.210383439699797</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>5.771754430479234</v>
+        <v>2.931111611324496</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>8.362216296764103</v>
+        <v>5.354712804239426</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>10.45194930052745</v>
+        <v>7.50997915616145</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>4.980654389561664</v>
+        <v>3.300823105730927</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>2.160464450507419</v>
+        <v>0.6462444035926467</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>6.253731139576956</v>
+        <v>4.247627865884226</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>4.474379105009632</v>
+        <v>2.414099424793022</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>8.8185636680779</v>
+        <v>6.812554763277262</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>2.888187498143338</v>
+        <v>0.8685221301803381</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>2.674510385551628</v>
+        <v>1.24962359301594</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>3.282142532013921</v>
+        <v>1.351711336541911</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>4.861386233895416</v>
+        <v>2.646163582967546</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>4.283089269453768</v>
+        <v>2.122528569092339</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>1.832563725072816</v>
+        <v>0.2238756736561527</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>4.878254216533804</v>
+        <v>3.240177278725497</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>1.735470981939017</v>
+        <v>0.3967112054478719</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>4.215591065932443</v>
+        <v>1.883477187976155</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>5.908716439994691</v>
+        <v>3.332656956713947</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>2.814955654881771</v>
+        <v>0.4007973560852918</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>4.789611789778576</v>
+        <v>2.987432433173382</v>
       </c>
     </row>
   </sheetData>
